--- a/Document/UI 시안/UI 텍스트 리스트.xlsx
+++ b/Document/UI 시안/UI 텍스트 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\강동민\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>UI 텍스트 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,38 +242,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이동속도 + (n)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도 + (n)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>변신 회복율 + (n)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(n)스테이지동안 공격력을 + (n)만큼 증가 합니다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(n)스테이지동안 방어력을 + (n)만큼 증가 합니다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(n)스테이지동안 이동속도를 + (n)만큼 증가 합니다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(n)스테이지동안 공격속도를 + (n)만큼 증가 합니다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(n)스테이지동안 변신 회복율을 + (n)만큼 증가 합니다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>남은 몬스터는 (전체 몬스터의 / 2) 입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -347,6 +319,66 @@
   </si>
   <si>
     <t>생존: 제한시간 까지 생존.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션 목표 1, 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 섬멸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 방어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점점 감소하는 제한 시간을 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치시 감소하는 남은 몬스터의 수를 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행될때 마다 감소하는 남은 웨이브를 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 + (n)만큼 증가 합니다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력을 + (n)만큼 증가 합니다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율을 + (n)만큼 증가 합니다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임을 + (n)만큼 증가 합니다!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,19 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,6 +550,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,8 +653,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1924050" y="10706100"/>
-          <a:ext cx="1162050" cy="559004"/>
+          <a:off x="1925171" y="10869706"/>
+          <a:ext cx="1162610" cy="569089"/>
           <a:chOff x="1876425" y="10715625"/>
           <a:chExt cx="1181100" cy="559004"/>
         </a:xfrm>
@@ -732,8 +770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1828800" y="11496675"/>
-          <a:ext cx="1362075" cy="616154"/>
+          <a:off x="1829921" y="11673728"/>
+          <a:ext cx="1362635" cy="626239"/>
           <a:chOff x="1828800" y="10668000"/>
           <a:chExt cx="1314450" cy="616154"/>
         </a:xfrm>
@@ -833,13 +871,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>602528</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -877,13 +915,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>158954</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -893,8 +931,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2924175" y="20802600"/>
-          <a:ext cx="3533775" cy="559004"/>
+          <a:off x="2925856" y="20705109"/>
+          <a:ext cx="3530413" cy="565727"/>
           <a:chOff x="1876425" y="10715625"/>
           <a:chExt cx="3591706" cy="559004"/>
         </a:xfrm>
@@ -994,13 +1032,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>56251</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1032,13 +1070,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>396824</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1092,13 +1130,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1108,8 +1146,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11287125" y="21031200"/>
-          <a:ext cx="4314825" cy="657225"/>
+          <a:off x="11272557" y="20937071"/>
+          <a:ext cx="4301378" cy="667310"/>
           <a:chOff x="1876425" y="10715625"/>
           <a:chExt cx="4385560" cy="657225"/>
         </a:xfrm>
@@ -1209,13 +1247,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1225,8 +1263,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11877675" y="21640800"/>
-          <a:ext cx="2200276" cy="571500"/>
+          <a:off x="11860866" y="21556756"/>
+          <a:ext cx="2193553" cy="578223"/>
           <a:chOff x="1876425" y="10715625"/>
           <a:chExt cx="2236346" cy="571500"/>
         </a:xfrm>
@@ -1326,13 +1364,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1342,8 +1380,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11868150" y="22002750"/>
-          <a:ext cx="2200276" cy="571500"/>
+          <a:off x="11851341" y="21922068"/>
+          <a:ext cx="2193553" cy="581585"/>
           <a:chOff x="1876425" y="10715625"/>
           <a:chExt cx="2236346" cy="571500"/>
         </a:xfrm>
@@ -1443,13 +1481,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1906,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E150"/>
+  <dimension ref="B3:E166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1977,10 +2015,10 @@
       <c r="B74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="11"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="4" t="s">
         <v>12</v>
       </c>
@@ -1989,47 +2027,47 @@
       <c r="B75" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="14"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="14"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="11"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="4" t="s">
         <v>11</v>
       </c>
@@ -2038,18 +2076,18 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="12"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E82" s="9"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
@@ -2059,10 +2097,10 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="11"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="4" t="s">
         <v>11</v>
       </c>
@@ -2071,186 +2109,200 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="12"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="6" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E86" s="9"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="12"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E87" s="9"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E88" s="9"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="6" t="s">
-        <v>60</v>
+      <c r="B89" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E90" s="9"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="6">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="6"/>
+    </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B122" s="6">
+        <v>2</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="6">
-        <v>3</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125" s="6"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="6">
-        <v>4</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126" s="6"/>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>34</v>
-      </c>
+      <c r="B130" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="E135" s="6"/>
     </row>
@@ -2259,145 +2311,229 @@
         <v>42</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E136" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E137" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C140" s="6" t="s">
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="C147" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E140" s="6"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E141" s="6"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E142" s="6"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B147" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="11"/>
-      <c r="E147" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" s="17"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="19"/>
+      <c r="D154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D148" s="14"/>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="6" t="s">
+      <c r="C155" s="17"/>
+      <c r="D155" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C156" s="17"/>
+      <c r="D156" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
         <v>76</v>
       </c>
-      <c r="C149" s="13" t="s">
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B159" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="19"/>
+      <c r="D159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B160" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D149" s="14"/>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150" s="6" t="s">
+      <c r="C160" s="17"/>
+      <c r="D160" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E160" s="10"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161" s="16"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
         <v>77</v>
       </c>
-      <c r="C150" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D150" s="14"/>
-      <c r="E150" s="6"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="D165" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E165" s="10"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="16"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C150:D150"/>
+  <mergeCells count="24">
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
     <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B87:C87"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
@@ -2405,8 +2541,16 @@
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/UI 시안/UI 텍스트 리스트.xlsx
+++ b/Document/UI 시안/UI 텍스트 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\UI 시안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>UI 텍스트 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제한시간 동안 계속해서 나오는 몬스터로 부터 생존하세요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 보상 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -379,6 +375,14 @@
   </si>
   <si>
     <t>스킬 쿨타임을 + (n)만큼 증가 합니다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속해서 나오는 적으로 부터 공을 회수하세요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재미션의 진행도를 설명하는 내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,10 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,6 +569,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,14 +1075,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396824</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1147618</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26334</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1086,8 +1093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6978599" y="21669375"/>
-          <a:ext cx="1955851" cy="676275"/>
+          <a:off x="7041912" y="21585331"/>
+          <a:ext cx="1949128" cy="686360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,16 +1486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26334</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>177893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:rowOff>187418</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1500,8 +1507,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="22007513"/>
-          <a:ext cx="1066800" cy="9525"/>
+          <a:off x="8991040" y="21928511"/>
+          <a:ext cx="2017059" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1946,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2015,10 +2022,10 @@
       <c r="B74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="4" t="s">
         <v>12</v>
       </c>
@@ -2027,47 +2034,47 @@
       <c r="B75" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="17"/>
+      <c r="D75" s="21"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="17"/>
+      <c r="D76" s="21"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="17"/>
+      <c r="C77" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="21"/>
       <c r="E77" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="19"/>
+      <c r="B81" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="18"/>
       <c r="D81" s="4" t="s">
         <v>11</v>
       </c>
@@ -2076,12 +2083,12 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="E82" s="9"/>
     </row>
@@ -2093,14 +2100,14 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="19"/>
+      <c r="B85" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="18"/>
       <c r="D85" s="4" t="s">
         <v>11</v>
       </c>
@@ -2109,48 +2116,48 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="6" t="s">
+      <c r="C87" s="19"/>
+      <c r="D87" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="20" t="s">
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="6" t="s">
+      <c r="C88" s="19"/>
+      <c r="D88" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="16" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="E89" s="9"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
@@ -2172,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E121" s="6"/>
     </row>
@@ -2184,10 +2191,10 @@
         <v>2</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E122" s="6"/>
     </row>
@@ -2196,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>16</v>
@@ -2208,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>16</v>
@@ -2217,7 +2224,7 @@
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
@@ -2225,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>11</v>
@@ -2239,10 +2246,10 @@
         <v>19</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E130" s="6"/>
     </row>
@@ -2251,10 +2258,10 @@
         <v>19</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E131" s="6"/>
     </row>
@@ -2263,86 +2270,86 @@
         <v>19</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D138" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E138" s="6"/>
     </row>
@@ -2351,10 +2358,10 @@
         <v>21</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E139" s="6"/>
     </row>
@@ -2363,26 +2370,26 @@
         <v>21</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E140" s="6"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="19"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="4" t="s">
         <v>12</v>
       </c>
@@ -2391,47 +2398,47 @@
       <c r="B146" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D146" s="17"/>
+      <c r="C146" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="21"/>
       <c r="E146" s="6"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D147" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D147" s="21"/>
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D148" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="21"/>
       <c r="E148" s="6"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C154" s="19"/>
+      <c r="C154" s="18"/>
       <c r="D154" s="4" t="s">
         <v>11</v>
       </c>
@@ -2440,35 +2447,35 @@
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C155" s="17"/>
+      <c r="B155" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C155" s="21"/>
       <c r="D155" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C156" s="21"/>
+      <c r="D156" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="E155" s="10"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="E156" s="10"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="19"/>
+      <c r="C159" s="18"/>
       <c r="D159" s="4" t="s">
         <v>11</v>
       </c>
@@ -2477,31 +2484,31 @@
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C160" s="17"/>
+      <c r="B160" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C160" s="21"/>
       <c r="D160" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E160" s="10"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B161" s="16"/>
-      <c r="C161" s="17"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="21"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C164" s="19"/>
+      <c r="C164" s="18"/>
       <c r="D164" s="4" t="s">
         <v>11</v>
       </c>
@@ -2510,37 +2517,23 @@
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B165" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C165" s="17"/>
+      <c r="B165" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C165" s="21"/>
       <c r="D165" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B166" s="16"/>
-      <c r="C166" s="17"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="21"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
     <mergeCell ref="B154:C154"/>
     <mergeCell ref="B155:C155"/>
     <mergeCell ref="B156:C156"/>
@@ -2551,9 +2544,24 @@
     <mergeCell ref="B161:C161"/>
     <mergeCell ref="B164:C164"/>
     <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B88:C88"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>